--- a/15.xlsx
+++ b/15.xlsx
@@ -57,13 +57,13 @@
     <t>Минимальное значение</t>
   </si>
   <si>
-    <t>Длинна км</t>
-  </si>
-  <si>
     <t>Ширина м</t>
   </si>
   <si>
     <t>Глубина м</t>
+  </si>
+  <si>
+    <t>Длинна м</t>
   </si>
 </sst>
 </file>
@@ -184,7 +184,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Длинна км</c:v>
+                  <c:v>Длинна м</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -727,7 +727,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,13 +743,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
